--- a/맥북에어_blog_data.xlsx
+++ b/맥북에어_blog_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5208,7 +5208,7 @@
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5712,7 +5712,7 @@
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       <c r="B405" t="inlineStr"/>
       <c r="C405" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
       <c r="B408" t="inlineStr"/>
       <c r="C408" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       <c r="B411" t="inlineStr"/>
       <c r="C411" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
       <c r="B426" t="inlineStr"/>
       <c r="C426" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6426,7 @@
       <c r="B429" t="inlineStr"/>
       <c r="C429" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
       <c r="B438" t="inlineStr"/>
       <c r="C438" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="B444" t="inlineStr"/>
       <c r="C444" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       <c r="B447" t="inlineStr"/>
       <c r="C447" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6720,7 +6720,7 @@
       <c r="B450" t="inlineStr"/>
       <c r="C450" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       <c r="B459" t="inlineStr"/>
       <c r="C459" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6888,7 +6888,7 @@
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7098,7 +7098,7 @@
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
       <c r="B483" t="inlineStr"/>
       <c r="C483" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       <c r="B495" t="inlineStr"/>
       <c r="C495" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7434,7 @@
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       <c r="B504" t="inlineStr"/>
       <c r="C504" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7602,7 +7602,7 @@
       <c r="B513" t="inlineStr"/>
       <c r="C513" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       <c r="B519" t="inlineStr"/>
       <c r="C519" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7770,7 +7770,7 @@
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7812,7 +7812,7 @@
       <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       <c r="B531" t="inlineStr"/>
       <c r="C531" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       <c r="B534" t="inlineStr"/>
       <c r="C534" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       <c r="B537" t="inlineStr"/>
       <c r="C537" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -7980,7 +7980,7 @@
       <c r="B540" t="inlineStr"/>
       <c r="C540" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
       <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       <c r="B546" t="inlineStr"/>
       <c r="C546" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       <c r="B549" t="inlineStr"/>
       <c r="C549" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       <c r="B552" t="inlineStr"/>
       <c r="C552" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       <c r="B555" t="inlineStr"/>
       <c r="C555" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8232,7 @@
       <c r="B558" t="inlineStr"/>
       <c r="C558" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
       <c r="B561" t="inlineStr"/>
       <c r="C561" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       <c r="B567" t="inlineStr"/>
       <c r="C567" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8400,7 +8400,7 @@
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
       <c r="B573" t="inlineStr"/>
       <c r="C573" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8526,7 @@
       <c r="B579" t="inlineStr"/>
       <c r="C579" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       <c r="B582" t="inlineStr"/>
       <c r="C582" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8610,7 +8610,7 @@
       <c r="B585" t="inlineStr"/>
       <c r="C585" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       <c r="B588" t="inlineStr"/>
       <c r="C588" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
       <c r="B591" t="inlineStr"/>
       <c r="C591" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8736,7 @@
       <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="B597" t="inlineStr"/>
       <c r="C597" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8820,7 +8820,7 @@
       <c r="B600" t="inlineStr"/>
       <c r="C600" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
       <c r="B603" t="inlineStr"/>
       <c r="C603" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
       <c r="B606" t="inlineStr"/>
       <c r="C606" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
       <c r="B609" t="inlineStr"/>
       <c r="C609" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -8988,7 +8988,7 @@
       <c r="B612" t="inlineStr"/>
       <c r="C612" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="B615" t="inlineStr"/>
       <c r="C615" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       <c r="B618" t="inlineStr"/>
       <c r="C618" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9114,7 +9114,7 @@
       <c r="B621" t="inlineStr"/>
       <c r="C621" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
       <c r="B624" t="inlineStr"/>
       <c r="C624" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9198,7 +9198,7 @@
       <c r="B627" t="inlineStr"/>
       <c r="C627" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
       <c r="B630" t="inlineStr"/>
       <c r="C630" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="B633" t="inlineStr"/>
       <c r="C633" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       <c r="B636" t="inlineStr"/>
       <c r="C636" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       <c r="B639" t="inlineStr"/>
       <c r="C639" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9408,7 @@
       <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9450,7 +9450,7 @@
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9534,7 +9534,7 @@
       <c r="B651" t="inlineStr"/>
       <c r="C651" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       <c r="B654" t="inlineStr"/>
       <c r="C654" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
       <c r="B660" t="inlineStr"/>
       <c r="C660" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9702,7 +9702,7 @@
       <c r="B663" t="inlineStr"/>
       <c r="C663" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9744,7 +9744,7 @@
       <c r="B666" t="inlineStr"/>
       <c r="C666" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       <c r="B669" t="inlineStr"/>
       <c r="C669" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       <c r="B672" t="inlineStr"/>
       <c r="C672" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9870,7 +9870,7 @@
       <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
       <c r="B678" t="inlineStr"/>
       <c r="C678" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9954,7 +9954,7 @@
       <c r="B681" t="inlineStr"/>
       <c r="C681" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
       <c r="B684" t="inlineStr"/>
       <c r="C684" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       <c r="B687" t="inlineStr"/>
       <c r="C687" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10080,7 +10080,7 @@
       <c r="B690" t="inlineStr"/>
       <c r="C690" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="B693" t="inlineStr"/>
       <c r="C693" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
       <c r="B696" t="inlineStr"/>
       <c r="C696" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       <c r="B699" t="inlineStr"/>
       <c r="C699" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
       <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10290,7 +10290,7 @@
       <c r="B705" t="inlineStr"/>
       <c r="C705" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
       <c r="B708" t="inlineStr"/>
       <c r="C708" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10374,7 @@
       <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10458,7 +10458,7 @@
       <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       <c r="B720" t="inlineStr"/>
       <c r="C720" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10542,7 +10542,7 @@
       <c r="B723" t="inlineStr"/>
       <c r="C723" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10584,7 +10584,7 @@
       <c r="B726" t="inlineStr"/>
       <c r="C726" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10626,7 @@
       <c r="B729" t="inlineStr"/>
       <c r="C729" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
       <c r="B732" t="inlineStr"/>
       <c r="C732" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
       <c r="B735" t="inlineStr"/>
       <c r="C735" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
       <c r="B738" t="inlineStr"/>
       <c r="C738" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10794,7 +10794,7 @@
       <c r="B741" t="inlineStr"/>
       <c r="C741" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       <c r="B744" t="inlineStr"/>
       <c r="C744" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
       <c r="B747" t="inlineStr"/>
       <c r="C747" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10920,7 +10920,7 @@
       <c r="B750" t="inlineStr"/>
       <c r="C750" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
       <c r="B753" t="inlineStr"/>
       <c r="C753" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11004,7 +11004,7 @@
       <c r="B756" t="inlineStr"/>
       <c r="C756" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       <c r="B759" t="inlineStr"/>
       <c r="C759" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11088,7 @@
       <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
       <c r="B765" t="inlineStr"/>
       <c r="C765" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11172,7 +11172,7 @@
       <c r="B768" t="inlineStr"/>
       <c r="C768" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       <c r="B771" t="inlineStr"/>
       <c r="C771" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       <c r="B774" t="inlineStr"/>
       <c r="C774" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11298,7 +11298,7 @@
       <c r="B777" t="inlineStr"/>
       <c r="C777" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11424,7 +11424,7 @@
       <c r="B786" t="inlineStr"/>
       <c r="C786" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11466,7 @@
       <c r="B789" t="inlineStr"/>
       <c r="C789" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
       <c r="B792" t="inlineStr"/>
       <c r="C792" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11592,7 +11592,7 @@
       <c r="B798" t="inlineStr"/>
       <c r="C798" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11634,7 +11634,7 @@
       <c r="B801" t="inlineStr"/>
       <c r="C801" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11676,7 @@
       <c r="B804" t="inlineStr"/>
       <c r="C804" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
       <c r="B807" t="inlineStr"/>
       <c r="C807" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="B810" t="inlineStr"/>
       <c r="C810" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11802,7 +11802,7 @@
       <c r="B813" t="inlineStr"/>
       <c r="C813" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11844,7 +11844,7 @@
       <c r="B816" t="inlineStr"/>
       <c r="C816" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       <c r="B819" t="inlineStr"/>
       <c r="C819" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       <c r="B822" t="inlineStr"/>
       <c r="C822" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
       <c r="B825" t="inlineStr"/>
       <c r="C825" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12012,7 @@
       <c r="B828" t="inlineStr"/>
       <c r="C828" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12054,7 +12054,7 @@
       <c r="B831" t="inlineStr"/>
       <c r="C831" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       <c r="B834" t="inlineStr"/>
       <c r="C834" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
       <c r="B837" t="inlineStr"/>
       <c r="C837" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12180,7 +12180,7 @@
       <c r="B840" t="inlineStr"/>
       <c r="C840" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12222,7 +12222,7 @@
       <c r="B843" t="inlineStr"/>
       <c r="C843" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12264,7 +12264,7 @@
       <c r="B846" t="inlineStr"/>
       <c r="C846" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
       <c r="B849" t="inlineStr"/>
       <c r="C849" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12348,7 +12348,7 @@
       <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12390,7 +12390,7 @@
       <c r="B855" t="inlineStr"/>
       <c r="C855" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12432,7 +12432,7 @@
       <c r="B858" t="inlineStr"/>
       <c r="C858" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       <c r="B861" t="inlineStr"/>
       <c r="C861" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12516,7 @@
       <c r="B864" t="inlineStr"/>
       <c r="C864" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12558,7 +12558,7 @@
       <c r="B867" t="inlineStr"/>
       <c r="C867" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12600,7 @@
       <c r="B870" t="inlineStr"/>
       <c r="C870" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       <c r="B873" t="inlineStr"/>
       <c r="C873" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12684,7 +12684,7 @@
       <c r="B876" t="inlineStr"/>
       <c r="C876" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12726,7 @@
       <c r="B879" t="inlineStr"/>
       <c r="C879" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12768,7 +12768,7 @@
       <c r="B882" t="inlineStr"/>
       <c r="C882" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12810,7 +12810,7 @@
       <c r="B885" t="inlineStr"/>
       <c r="C885" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12852,7 +12852,7 @@
       <c r="B888" t="inlineStr"/>
       <c r="C888" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12894,7 +12894,7 @@
       <c r="B891" t="inlineStr"/>
       <c r="C891" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12936,7 @@
       <c r="B894" t="inlineStr"/>
       <c r="C894" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       <c r="B897" t="inlineStr"/>
       <c r="C897" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>4일 전</t>
+          <t>5일 전</t>
         </is>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
       <c r="B900" t="inlineStr"/>
       <c r="C900" t="inlineStr">
         <is>
-          <t>둥2딸Ki</t>
+          <t>그남자 원동욱</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
